--- a/518/data/friedrich/winkel.xlsx
+++ b/518/data/friedrich/winkel.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="winkel" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>n</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>cos^2</t>
+  </si>
+  <si>
+    <t>dcount</t>
+  </si>
+  <si>
+    <t>dcos^2</t>
   </si>
 </sst>
 </file>
@@ -114,7 +120,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$G$4</c:f>
+              <c:f>winkel!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -130,7 +136,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$5:$E$16</c:f>
+              <c:f>winkel!$E$5:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -175,7 +181,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$G$5:$G$16</c:f>
+              <c:f>winkel!$G$5:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -228,11 +234,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="53711232"/>
-        <c:axId val="53709440"/>
+        <c:axId val="286479872"/>
+        <c:axId val="286481408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53711232"/>
+        <c:axId val="286479872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -242,12 +248,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53709440"/>
+        <c:crossAx val="286481408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53709440"/>
+        <c:axId val="286481408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -258,7 +264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53711232"/>
+        <c:crossAx val="286479872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -326,7 +332,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$5:$H$16</c:f>
+              <c:f>winkel!$I$5:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -371,7 +377,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$G$5:$G$16</c:f>
+              <c:f>winkel!$G$5:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -424,11 +430,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173204992"/>
-        <c:axId val="173203456"/>
+        <c:axId val="287723520"/>
+        <c:axId val="287725056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173204992"/>
+        <c:axId val="287723520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -438,12 +444,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173203456"/>
+        <c:crossAx val="287725056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173203456"/>
+        <c:axId val="287725056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,7 +460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173204992"/>
+        <c:crossAx val="287723520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -480,13 +486,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>157162</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>461962</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
@@ -510,13 +516,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>166687</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>471487</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
@@ -828,15 +834,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:H16"/>
+  <dimension ref="C4:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -853,10 +859,16 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
         <v>5</v>
       </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>0</v>
       </c>
@@ -873,11 +885,18 @@
         <v>6694</v>
       </c>
       <c r="H5">
+        <v>1239</v>
+      </c>
+      <c r="I5">
         <f>COS(E5*PI()/180)^2</f>
         <v>1</v>
       </c>
+      <c r="J5">
+        <f>SIN(2*E5*PI()/180)*PI()/180*F5</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1</v>
       </c>
@@ -894,11 +913,18 @@
         <v>8357</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H16" si="0">COS(E6*PI()/180)^2</f>
+        <v>1239</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I16" si="0">COS(E6*PI()/180)^2</f>
         <v>0.93301270189221941</v>
       </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J16" si="1">SIN(2*E6*PI()/180)*PI()/180*F6</f>
+        <v>6.5449846949787338E-2</v>
+      </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2</v>
       </c>
@@ -915,11 +941,18 @@
         <v>7928</v>
       </c>
       <c r="H7">
+        <v>1239</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
         <v>0.75000000000000011</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0.1133624602646386</v>
+      </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>3</v>
       </c>
@@ -936,11 +969,18 @@
         <v>4444</v>
       </c>
       <c r="H8">
+        <v>1239</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>0.50000000000000011</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.1308996938995747</v>
+      </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>4</v>
       </c>
@@ -957,11 +997,18 @@
         <v>1588</v>
       </c>
       <c r="H9">
+        <v>1239</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>0.25000000000000011</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.11336246026463861</v>
+      </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>5</v>
       </c>
@@ -978,11 +1025,18 @@
         <v>345</v>
       </c>
       <c r="H10">
+        <v>1239</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>6.698729810778066E-2</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>6.5449846949787338E-2</v>
+      </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>6</v>
       </c>
@@ -999,11 +1053,18 @@
         <v>6</v>
       </c>
       <c r="H11">
+        <v>1239</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="0"/>
         <v>3.7524718414124473E-33</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>1.6037155772907526E-17</v>
+      </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>7</v>
       </c>
@@ -1020,11 +1081,18 @@
         <v>582</v>
       </c>
       <c r="H12">
+        <v>1239</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="0"/>
         <v>6.698729810778066E-2</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>-6.5449846949787338E-2</v>
+      </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>8</v>
       </c>
@@ -1041,11 +1109,18 @@
         <v>2379</v>
       </c>
       <c r="H13">
+        <v>1239</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="0"/>
         <v>0.25000000000000011</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>-0.11336246026463861</v>
+      </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>9</v>
       </c>
@@ -1062,11 +1137,18 @@
         <v>37</v>
       </c>
       <c r="H14">
+        <v>1239</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="0"/>
         <v>0.50000000000000011</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>-0.1308996938995747</v>
+      </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>10</v>
       </c>
@@ -1083,11 +1165,18 @@
         <v>7302</v>
       </c>
       <c r="H15">
+        <v>1239</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="0"/>
         <v>0.75000000000000011</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>-0.1133624602646386</v>
+      </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>11</v>
       </c>
@@ -1104,8 +1193,15 @@
         <v>5491</v>
       </c>
       <c r="H16">
+        <v>1239</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="0"/>
         <v>0.93301270189221941</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>-6.5449846949787338E-2</v>
       </c>
     </row>
   </sheetData>
